--- a/planlægning/hificorner gantt.xlsx
+++ b/planlægning/hificorner gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Kodning_server\Web\Sider\wuhf-hificorner-danieltherkildsen\planlægning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{05C9B744-2BD3-4777-BBA0-3E692090D51F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300E501D-5603-4CE4-A6EB-E99106FAC847}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,34 +222,34 @@
     <t>Activity 31</t>
   </si>
   <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>Navigation</t>
-  </si>
-  <si>
     <t>1 point = 1 time</t>
   </si>
   <si>
-    <t>Frontpage Header/nav background w/ logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontpage showroom banner </t>
-  </si>
-  <si>
-    <t>Frontpage product hero slider</t>
-  </si>
-  <si>
-    <t>Frontpage product hero slider funktionalitet</t>
-  </si>
-  <si>
-    <t>Frontpage social box</t>
-  </si>
-  <si>
-    <t>Frontpage social boxes grid</t>
-  </si>
-  <si>
-    <t>Frontpage history/news/shop single item</t>
+    <t>Frontpage product hero slider funktionalitet (JS)</t>
+  </si>
+  <si>
+    <t>Frontpage product hero slider (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Frontpage Header/nav background w/ logo (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Frontpage showroom banner (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Header (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Navigationw (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Frontpage social box (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Frontpage social boxes grid (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Frontpage history/news/shop single item (HTML/CSS)</t>
   </si>
 </sst>
 </file>
@@ -625,6 +625,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -660,15 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -692,7 +692,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -709,15 +709,6 @@
         <bottom style="thin">
           <color theme="7"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -1081,14 +1072,14 @@
   </sheetPr>
   <dimension ref="B1:BO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.77734375" style="1"/>
@@ -1103,18 +1094,18 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="34" t="s">
-        <v>39</v>
+      <c r="H1" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1122,66 +1113,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="33"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="33"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="32" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1208,12 +1199,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1397,7 +1388,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1417,7 +1408,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1436,7 +1427,7 @@
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="7">
@@ -1456,7 +1447,7 @@
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="7">
@@ -1476,8 +1467,8 @@
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
-        <v>42</v>
+      <c r="B9" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="7">
         <v>5</v>
@@ -1496,8 +1487,8 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
-        <v>43</v>
+      <c r="B10" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
@@ -2031,28 +2022,28 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO35">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/planlægning/hificorner gantt.xlsx
+++ b/planlægning/hificorner gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Kodning_server\Web\Sider\wuhf-hificorner-danieltherkildsen\planlægning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300E501D-5603-4CE4-A6EB-E99106FAC847}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF275211-EFF6-4BED-BA2D-107FD2EE772D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,63 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>PERIODS</t>
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -207,21 +156,6 @@
     <t>Hifi Corner</t>
   </si>
   <si>
-    <t>Activity 27</t>
-  </si>
-  <si>
-    <t>Activity 28</t>
-  </si>
-  <si>
-    <t>Activity 29</t>
-  </si>
-  <si>
-    <t>Activity 30</t>
-  </si>
-  <si>
-    <t>Activity 31</t>
-  </si>
-  <si>
     <t>1 point = 1 time</t>
   </si>
   <si>
@@ -240,9 +174,6 @@
     <t>Header (HTML/CSS)</t>
   </si>
   <si>
-    <t>Navigationw (HTML/CSS)</t>
-  </si>
-  <si>
     <t>Frontpage social box (HTML/CSS)</t>
   </si>
   <si>
@@ -250,6 +181,81 @@
   </si>
   <si>
     <t>Frontpage history/news/shop single item (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Navigation (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Frontpage history/news/shop grid (HTML)</t>
+  </si>
+  <si>
+    <t>Footer (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Brandspage banner (HTML)</t>
+  </si>
+  <si>
+    <t>brandspage brands we stock section (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Brandspage brandsinfo section (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Shopfrontpage shop category item (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Shopfrontpage shop categories grid (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Lav hifi logo</t>
+  </si>
+  <si>
+    <t>Shop category list page middle sort by (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Shop category list page nuværende nav sted (home/amplifiers) (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Shop category list page shop by filters (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Shop category list page category filter left (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Shop category list page shop item (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Shop category list page shop item grid (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Shop category list page fetch items (JS)</t>
+  </si>
+  <si>
+    <t>Shop category list page category filtrering efter bruger valg (JS)</t>
+  </si>
+  <si>
+    <t>Single product view item gallery (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Single product view banner (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Single product view bottom left description (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Single product view quantity and finish (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Single product view additional information (HTML/CSS)</t>
+  </si>
+  <si>
+    <t>Single product view about/price/buttons (HTML)</t>
+  </si>
+  <si>
+    <t>Single product view gallery image change (Javascript)</t>
+  </si>
+  <si>
+    <t>Single product view URLSearchParam get item json (Javascript)</t>
   </si>
 </sst>
 </file>
@@ -586,9 +592,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -669,6 +672,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -692,7 +698,346 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1070,10 +1415,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO35"/>
+  <dimension ref="B1:BO37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1086,125 +1431,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="22" t="s">
-        <v>37</v>
+      <c r="B1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+    </row>
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1386,9 +1731,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>42</v>
+    <row r="5" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1406,9 +1751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>43</v>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1426,9 +1771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -1447,8 +1792,8 @@
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23" t="s">
-        <v>41</v>
+      <c r="B8" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1467,8 +1812,8 @@
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
-        <v>39</v>
+      <c r="B9" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>5</v>
@@ -1487,35 +1832,35 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>38</v>
+      <c r="B10" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
       </c>
       <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="7">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
       <c r="E11" s="7">
         <v>0</v>
       </c>
@@ -1526,9 +1871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
-        <v>45</v>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>9</v>
@@ -1546,9 +1891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>46</v>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="7">
         <v>10</v>
@@ -1568,7 +1913,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -1588,13 +1933,13 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
@@ -1608,13 +1953,13 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -1626,15 +1971,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>5</v>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
@@ -1646,15 +1991,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>6</v>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
@@ -1668,13 +2013,13 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -1686,15 +2031,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>8</v>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
@@ -1706,15 +2051,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>9</v>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -1728,13 +2073,13 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -1748,13 +2093,13 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -1768,13 +2113,13 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -1788,13 +2133,13 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="7">
         <v>0</v>
@@ -1808,13 +2153,13 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -1828,13 +2173,13 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>
@@ -1846,15 +2191,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
-        <v>16</v>
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
@@ -1866,15 +2211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>17</v>
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="7">
         <v>0</v>
@@ -1886,15 +2231,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
-        <v>18</v>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="7">
         <v>0</v>
@@ -1908,13 +2253,13 @@
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
@@ -1928,13 +2273,13 @@
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="7">
         <v>0</v>
@@ -1948,13 +2293,13 @@
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
@@ -1968,13 +2313,13 @@
     </row>
     <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
@@ -1988,13 +2333,13 @@
     </row>
     <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
@@ -2003,6 +2348,46 @@
         <v>0</v>
       </c>
       <c r="G35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="7">
+        <v>37</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="7">
+        <v>42</v>
+      </c>
+      <c r="D37" s="7">
+        <v>6</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2021,35 +2406,87 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO35">
-    <cfRule type="expression" dxfId="8" priority="1">
+  <conditionalFormatting sqref="H6:BO36">
+    <cfRule type="expression" dxfId="32" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="31" priority="19">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:BO5">
+    <cfRule type="expression" dxfId="23" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:BO37">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>H$4=period_selected</formula>
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
